--- a/biology/Botanique/Parc_de_la_Méfou/Parc_de_la_Méfou.xlsx
+++ b/biology/Botanique/Parc_de_la_Méfou/Parc_de_la_Méfou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_la_M%C3%A9fou</t>
+          <t>Parc_de_la_Méfou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Parc de la Méfou[1] est un parc animalier du Cameroun situé dans la forêt de Mfou (Région du Centre), à 45 km au sud de la capitale Yaoundé[2]. Il est utilisé comme sanctuaire pour les primates originaires d'Afrique : le singe, le chimpanzé et le gorille[3],[4] et abrite une flore riche et diversifiée[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Parc de la Méfou est un parc animalier du Cameroun situé dans la forêt de Mfou (Région du Centre), à 45 km au sud de la capitale Yaoundé. Il est utilisé comme sanctuaire pour les primates originaires d'Afrique : le singe, le chimpanzé et le gorille, et abrite une flore riche et diversifiée.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_la_M%C3%A9fou</t>
+          <t>Parc_de_la_Méfou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Galérie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Un mandrillus sphinx dans le parc de la Méfou. Mai 2019.
